--- a/assets/model/modele_export_prestation.xlsx
+++ b/assets/model/modele_export_prestation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Electron\my-devis-carreleur\assets\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600FBCD5-4F70-4DF8-908A-3E499694C822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9CB46-224F-4E8E-9D77-CCFED9488183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="555" windowWidth="21600" windowHeight="11295" xr2:uid="{46016C71-5B08-4C98-8D27-5F6FE33A5F8B}"/>
+    <workbookView xWindow="3705" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{46016C71-5B08-4C98-8D27-5F6FE33A5F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="prestation" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>LISTE CLIENTS</t>
+    <t>LISTE PRESTATIONS</t>
   </si>
   <si>
-    <t>NOM</t>
+    <t>PU</t>
   </si>
   <si>
-    <t>TELEPHONE</t>
+    <t>NOMBRE  PRESTATIONS :</t>
   </si>
   <si>
-    <t>NOMBRE  CLIENTS</t>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,9 +138,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,7 +484,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,39 +494,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/model/modele_export_prestation.xlsx
+++ b/assets/model/modele_export_prestation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Electron\my-devis-carreleur\assets\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9CB46-224F-4E8E-9D77-CCFED9488183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3B4900-D87E-4AE3-B7EB-34BD34DE5E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3705" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{46016C71-5B08-4C98-8D27-5F6FE33A5F8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>LISTE PRESTATIONS</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>CODE</t>
   </si>
 </sst>
 </file>
@@ -481,44 +484,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F4F77-AECD-4DAA-BC25-D51DE6896F9F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
